--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,142 +451,82 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_||H||_1</t>
+          <t>1_norm_PLS_||H||_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_||H||_0</t>
+          <t>1_norm_PLS_||H||_0</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_rank(H)</t>
+          <t>1_norm_PLS_rank(H)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_||AHA - A||_F</t>
+          <t>1_norm_PLS_||AHA - A||_F</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_||HAH - H||_F</t>
+          <t>1_norm_PLS_||HAH - H||_F</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_||(AH)^T - AH||_F</t>
+          <t>1_norm_PLS_||(AH)^T - AH||_F</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_||A^TAH - AT||_F</t>
+          <t>1_norm_PLS_||A^TAH - AT||_F</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_PLS_||H||_1</t>
+          <t>1_norm_PLS_Computational_Time(s)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_PLS_||H||_0</t>
+          <t>1_norm_P1_P3_||H||_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_PLS_rank(H)</t>
+          <t>1_norm_P1_P3_||H||_0</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_PLS_||AHA - A||_F</t>
+          <t>1_norm_P1_P3_rank(H)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_PLS_||HAH - H||_F</t>
+          <t>1_norm_P1_P3_||AHA - A||_F</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_PLS_||(AH)^T - AH||_F</t>
+          <t>1_norm_P1_P3_||HAH - H||_F</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_PLS_||A^TAH - AT||_F</t>
+          <t>1_norm_P1_P3_||(AH)^T - AH||_F</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_PLS_||H||_1</t>
+          <t>1_norm_P1_P3_||A^TAH - AT||_F</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>1_norm_P1_PLS_||H||_0</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_PLS_rank(H)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_PLS_||AHA - A||_F</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_PLS_||HAH - H||_F</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_PLS_||(AH)^T - AH||_F</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_PLS_||A^TAH - AT||_F</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_P3_||H||_1</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_P3_||H||_0</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_P3_rank(H)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_P3_||AHA - A||_F</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_P3_||HAH - H||_F</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_P3_||(AH)^T - AH||_F</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1_norm_P1_P3_||A^TAH - AT||_F</t>
+          <t>1_norm_P1_P3_Computational_Time(s)</t>
         </is>
       </c>
     </row>
@@ -601,88 +541,52 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>24.19480833755655</v>
+        <v>32.26438949919196</v>
       </c>
       <c r="E2" t="n">
-        <v>144</v>
+        <v>600</v>
       </c>
       <c r="F2" t="n">
         <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>1.563211471423973e-13</v>
+        <v>6.074890280510293e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.356510929592766</v>
+        <v>0.8395938583379771</v>
       </c>
       <c r="I2" t="n">
-        <v>11.22359854094572</v>
+        <v>2.463600183287116e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>132.187741964556</v>
+        <v>5.289123778608875e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>31.45367821307955</v>
+        <v>1.186869382858276</v>
       </c>
       <c r="L2" t="n">
+        <v>32.26438949918736</v>
+      </c>
+      <c r="M2" t="n">
         <v>600</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>25</v>
       </c>
-      <c r="N2" t="n">
-        <v>3.087200126884255e-13</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.833207023799213</v>
+        <v>1.08415636590398e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>2.562253679507077e-13</v>
+        <v>0.8395938583399148</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.842205702248154e-13</v>
+        <v>3.724115538872147e-11</v>
       </c>
       <c r="R2" t="n">
-        <v>31.45367821308023</v>
+        <v>1.475595224082124e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T2" t="n">
-        <v>25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6.609874148264932e-13</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.833207023799571</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.853856595093522e-12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.143269741507136e-11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>31.45367821307421</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>600</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.705503544388669e-11</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.8332070237996848</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9.499453583367935e-12</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4.981214027459215e-11</v>
+        <v>8.015872001647949</v>
       </c>
     </row>
     <row r="3">
@@ -696,88 +600,52 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>32.23256424016542</v>
+        <v>40.67689166903868</v>
       </c>
       <c r="E3" t="n">
-        <v>225</v>
+        <v>900</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>1.612329354998474e-13</v>
+        <v>6.143992304383014e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.582619224792233</v>
+        <v>0.8433581519974804</v>
       </c>
       <c r="I3" t="n">
-        <v>14.98458152307346</v>
+        <v>2.679918218285884e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>208.6151717432616</v>
+        <v>5.69579101545366e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>40.98379050762172</v>
+        <v>2.175321102142334</v>
       </c>
       <c r="L3" t="n">
+        <v>40.67689166903894</v>
+      </c>
+      <c r="M3" t="n">
         <v>900</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>30</v>
       </c>
-      <c r="N3" t="n">
-        <v>4.075109144186696e-12</v>
-      </c>
       <c r="O3" t="n">
-        <v>0.8481681615962775</v>
+        <v>8.609483502135014e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.898335900868158e-12</v>
+        <v>0.8433581519975532</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.736794381909764e-12</v>
+        <v>8.881156707897367e-13</v>
       </c>
       <c r="R3" t="n">
-        <v>40.98379050762421</v>
+        <v>4.064320011715042e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
-      </c>
-      <c r="T3" t="n">
-        <v>30</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5.806336860069156e-13</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.8481681615972911</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.940819897432933e-11</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5.660254994205761e-11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>40.98379050764014</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.213734961760072e-11</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.8481681615962752</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.051874433585821e-11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>8.271142027183139e-11</v>
+        <v>43.48126792907715</v>
       </c>
     </row>
     <row r="4">
@@ -791,88 +659,52 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>36.42078940206951</v>
+        <v>46.26152517197252</v>
       </c>
       <c r="E4" t="n">
-        <v>289</v>
+        <v>1190</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>6.026868874302707e-13</v>
+        <v>1.207489394514566e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>2.569114239595091</v>
+        <v>0.8387192876184119</v>
       </c>
       <c r="I4" t="n">
-        <v>14.32406632252019</v>
+        <v>3.476334503768754e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>221.8462925331964</v>
+        <v>7.875653022878451e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>46.83715083016205</v>
+        <v>3.821142911911011</v>
       </c>
       <c r="L4" t="n">
+        <v>46.26152517195999</v>
+      </c>
+      <c r="M4" t="n">
         <v>1190</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>35</v>
       </c>
-      <c r="N4" t="n">
-        <v>1.064865806513902e-13</v>
-      </c>
       <c r="O4" t="n">
-        <v>0.8948199821904315</v>
+        <v>2.179306284900606e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>3.941893752705634e-14</v>
+        <v>0.8387192876177038</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.922187058307662e-14</v>
+        <v>1.568380154344426e-11</v>
       </c>
       <c r="R4" t="n">
-        <v>46.83715083015932</v>
+        <v>1.057613462670832e-10</v>
       </c>
       <c r="S4" t="n">
-        <v>1190</v>
-      </c>
-      <c r="T4" t="n">
-        <v>35</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.005559346525905e-12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.8948199821900599</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.984133814197138e-12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.948508372180101e-11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>46.83715083021825</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1190</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.847552099938562e-11</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.8948199821931677</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.88730302375618e-11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.735018177228436e-10</v>
+        <v>89.2492048740387</v>
       </c>
     </row>
     <row r="5">
@@ -886,88 +718,52 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>42.56052273214512</v>
+        <v>54.82510747728131</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>5.625164104607483e-13</v>
+        <v>2.568170905575366e-12</v>
       </c>
       <c r="H5" t="n">
-        <v>2.69228270090844</v>
+        <v>0.874354650146805</v>
       </c>
       <c r="I5" t="n">
-        <v>16.4472717515527</v>
+        <v>1.113007535169032e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>304.8585452386067</v>
+        <v>2.56835072656505e-12</v>
       </c>
       <c r="K5" t="n">
-        <v>54.90691460913854</v>
+        <v>5.907901287078857</v>
       </c>
       <c r="L5" t="n">
+        <v>54.82510747727719</v>
+      </c>
+      <c r="M5" t="n">
         <v>1600</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>40</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.825707003516168e-13</v>
-      </c>
       <c r="O5" t="n">
-        <v>0.8535903370875122</v>
+        <v>3.793030179002634e-12</v>
       </c>
       <c r="P5" t="n">
-        <v>1.345597104835813e-13</v>
+        <v>0.8743546501466474</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.08204897826834e-13</v>
+        <v>2.876379959969867e-12</v>
       </c>
       <c r="R5" t="n">
-        <v>54.90691460913737</v>
+        <v>1.817223137438521e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="T5" t="n">
-        <v>40</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.400036490902248e-12</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.8535903370873993</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.042818854085034e-12</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.834076631954671e-11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>54.90691460913318</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.445954654710584e-12</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.8535903370875004</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.12614390748714e-12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.898459463643117e-11</v>
+        <v>199.9303543567657</v>
       </c>
     </row>
     <row r="6">
@@ -981,88 +777,52 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>47.15927249613631</v>
+        <v>60.82328159409055</v>
       </c>
       <c r="E6" t="n">
-        <v>484</v>
+        <v>1980</v>
       </c>
       <c r="F6" t="n">
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>5.253932504716502e-12</v>
+        <v>2.217967398471795e-13</v>
       </c>
       <c r="H6" t="n">
-        <v>2.690683050853194</v>
+        <v>0.8941361852261699</v>
       </c>
       <c r="I6" t="n">
-        <v>16.16623947443474</v>
+        <v>7.683794331338956e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>323.872185315577</v>
+        <v>1.878649953925581e-13</v>
       </c>
       <c r="K6" t="n">
-        <v>60.52014791446804</v>
+        <v>9.459279537200928</v>
       </c>
       <c r="L6" t="n">
+        <v>60.82328159409139</v>
+      </c>
+      <c r="M6" t="n">
         <v>1980</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>45</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.289411480739676e-12</v>
-      </c>
       <c r="O6" t="n">
-        <v>0.8864987990652222</v>
+        <v>2.40683023953836e-11</v>
       </c>
       <c r="P6" t="n">
-        <v>8.858186535588149e-13</v>
+        <v>0.8941361852254919</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.972332940752339e-12</v>
+        <v>1.600868523886295e-11</v>
       </c>
       <c r="R6" t="n">
-        <v>60.52014791446706</v>
+        <v>9.008335043457373e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>1980</v>
-      </c>
-      <c r="T6" t="n">
-        <v>45</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.946630025938209e-12</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.8864987990654911</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.474314224689561e-12</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.350452128513261e-11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>60.52014791451491</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.768125371425396e-11</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.8864987990661848</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1.502654594921371e-11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.131187904290431e-10</v>
+        <v>343.7252597808838</v>
       </c>
     </row>
     <row r="7">
@@ -1076,88 +836,52 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>54.07589843842255</v>
+        <v>70.05086579165344</v>
       </c>
       <c r="E7" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="F7" t="n">
         <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>2.454893763931219e-12</v>
+        <v>3.873117896252515e-13</v>
       </c>
       <c r="H7" t="n">
-        <v>3.313261665746298</v>
+        <v>0.9116740901727752</v>
       </c>
       <c r="I7" t="n">
-        <v>18.83160618930391</v>
+        <v>1.313191447603366e-13</v>
       </c>
       <c r="J7" t="n">
-        <v>427.5832727793006</v>
+        <v>3.139568024495029e-13</v>
       </c>
       <c r="K7" t="n">
-        <v>70.0552786545654</v>
+        <v>13.88029909133911</v>
       </c>
       <c r="L7" t="n">
+        <v>70.05086579165626</v>
+      </c>
+      <c r="M7" t="n">
         <v>2500</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>50</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.193273190286197e-12</v>
-      </c>
       <c r="O7" t="n">
-        <v>0.909755256835371</v>
+        <v>3.470325295664263e-12</v>
       </c>
       <c r="P7" t="n">
-        <v>1.391323070041996e-12</v>
+        <v>0.9116740901743073</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.43454748947362e-12</v>
+        <v>5.824135156992599e-11</v>
       </c>
       <c r="R7" t="n">
-        <v>70.05527865456969</v>
+        <v>2.88649832959585e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="T7" t="n">
-        <v>50</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.982187637979334e-12</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.9097552568354895</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.74908431231922e-11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>4.45448790779115e-11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>70.0552786545678</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>4.389818853380934e-12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.9097552568356089</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.038977610242199e-11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.553271113857353e-10</v>
+        <v>775.304249048233</v>
       </c>
     </row>
   </sheetData>
